--- a/Doo-Doc/Seccion # 6/VictusResidencias-Muestreo de datos.xlsx
+++ b/Doo-Doc/Seccion # 6/VictusResidencias-Muestreo de datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0a29f2ced7e34d5f/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Seccion # 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="513" documentId="8_{05D81128-4AA6-49ED-B3EF-9E02527ADCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46F837C6-DDC3-4D36-9EB5-06DE54DD92EC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54B53E2-79D2-438C-B322-6E842C575A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{83BDB507-2D4A-4DB7-81EB-606679A0BC39}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{83BDB507-2D4A-4DB7-81EB-606679A0BC39}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos de dominio" sheetId="1" r:id="rId1"/>
@@ -739,10 +739,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1064,15 +1060,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47027B0-40AE-4549-B740-B47A7AB45E34}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1080,7 +1076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1088,7 +1084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1096,7 +1092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1104,7 +1100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1112,7 +1108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1120,7 +1116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1128,7 +1124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1158,20 +1154,20 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="7" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>32</v>
       </c>
@@ -1185,7 +1181,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>17</v>
       </c>
@@ -1199,7 +1195,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -1214,7 +1210,7 @@
         <v>Conjunto Residencial Monteverde-1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -1229,7 +1225,7 @@
         <v>Conjunto Residencial Arrayanes-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -1244,7 +1240,7 @@
         <v>Conjunto Residencial Ipanema-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -1259,7 +1255,7 @@
         <v>Conjunto Residencial Jardines de San Antonio-4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -1288,25 +1284,25 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5546875" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="7" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>48</v>
       </c>
@@ -1326,7 +1322,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>17</v>
       </c>
@@ -1346,7 +1342,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -1368,7 +1364,7 @@
         <v>Piscina-1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -1390,7 +1386,7 @@
         <v>Gimnacio-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -1412,7 +1408,7 @@
         <v>BBQ-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -1434,7 +1430,7 @@
         <v>Campin-4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -1456,7 +1452,7 @@
         <v>Salon de eventos-5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -1478,7 +1474,7 @@
         <v>Juegos infantiles-6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -1500,7 +1496,7 @@
         <v>Cancha futbol-7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -1522,7 +1518,7 @@
         <v>Sala cine-8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>9</v>
       </c>
@@ -1587,19 +1583,19 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="7" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="7" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>56</v>
       </c>
@@ -1610,7 +1606,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>17</v>
       </c>
@@ -1621,7 +1617,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -1633,7 +1629,7 @@
         <v>Social-1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -1645,7 +1641,7 @@
         <v>Deportiva-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -1674,23 +1670,23 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.5703125" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" customWidth="1"/>
+    <col min="6" max="6" width="31.5546875" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="7" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>125</v>
       </c>
@@ -1713,7 +1709,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>17</v>
       </c>
@@ -1736,7 +1732,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -1761,7 +1757,7 @@
         <v>Juan Pablo Giraldo Posada-1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -1786,7 +1782,7 @@
         <v>Estefania Otalvaro Quintero-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -1811,7 +1807,7 @@
         <v>Andres Felipe Rodas Osorio-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -1836,7 +1832,7 @@
         <v>Maria Salome Gonzalez Blandon-4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -1861,7 +1857,7 @@
         <v>Maria Jose Restrepo Ramirez-5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -1886,7 +1882,7 @@
         <v>Ignacio Patino Calle-6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -1911,7 +1907,7 @@
         <v>Tomas Marin Estrada-7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -1936,7 +1932,7 @@
         <v>Jeronimo Montoya Londono-8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>9</v>
       </c>
@@ -1991,24 +1987,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640147A8-D922-48F8-9B7F-0E45E054706F}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="B3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="7" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>87</v>
       </c>
@@ -2025,7 +2021,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>17</v>
       </c>
@@ -2042,7 +2038,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -2060,7 +2056,7 @@
         <v>Casa-5 EN Bloque-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -2078,7 +2074,7 @@
         <v>Casa-7 EN Bloque-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -2096,7 +2092,7 @@
         <v>Apartamento-201 EN Torre-1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -2114,7 +2110,7 @@
         <v>Apartamento-503 EN Torre-1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -2132,7 +2128,7 @@
         <v>Penthouse-8 EN Manzana-5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -2150,7 +2146,7 @@
         <v>Cabaña-12 EN Villa-9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -2168,7 +2164,7 @@
         <v>Finca-2 EN Modulo-8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -2213,23 +2209,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8EB386-57F0-4A5A-AE66-1D5C5F25CD11}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="7" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="7" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>71</v>
       </c>
@@ -2240,7 +2236,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>17</v>
       </c>
@@ -2251,7 +2247,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -2263,7 +2259,7 @@
         <v>Torre-1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -2275,7 +2271,7 @@
         <v>Torre-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -2287,7 +2283,7 @@
         <v>Bloque-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -2299,7 +2295,7 @@
         <v>Bloque-4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -2311,7 +2307,7 @@
         <v>Manzana-5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -2323,7 +2319,7 @@
         <v>Manzana-6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -2335,7 +2331,7 @@
         <v>Modulo-7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -2347,7 +2343,7 @@
         <v>Modulo-8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>9</v>
       </c>
@@ -2372,27 +2368,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227D66C4-80B5-4A61-846F-E5A0771670F7}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="7" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>167</v>
       </c>
@@ -2424,7 +2420,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>17</v>
       </c>
@@ -2456,7 +2452,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -2489,7 +2485,7 @@
         <v>Aceptada-1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -2522,7 +2518,7 @@
         <v>Pendiente-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -2555,7 +2551,7 @@
         <v>Aceptada-3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -2588,7 +2584,7 @@
         <v>Pendiente-4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -2621,7 +2617,7 @@
         <v>Rechazado-5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -2654,7 +2650,7 @@
         <v>Aceptada-6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -2687,7 +2683,7 @@
         <v>Aceptada-7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -2720,17 +2716,17 @@
         <v>Aceptada-8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>158</v>
       </c>
